--- a/MonitorizacaoOceanica/dados_servidor.xlsx
+++ b/MonitorizacaoOceanica/dados_servidor.xlsx
@@ -1773,6 +1773,252 @@
   </x:si>
   <x:si>
     <x:t>2025-04-09T10:50:36.44589</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-09T13:27:12.4243671Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-09T13:27:51.2240237Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-09T13:28:12.4432581Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-09T13:28:29.8389190Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:56:34.4516955Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:56:46.6783413Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:56:58.9262814Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:57:34.4706311Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:57:46.7250684Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:57:58.9654518Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:58:34.4887503Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:58:46.7633916Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:58:58.9911229Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:59:34.5077692Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:59:46.7959625Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:59:59.0366248Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:56:58.9382871Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:57:58.9723342Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:58:58.9986788Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:59:59.0503507Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:56:46.7097904Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:57:46.7400322Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:58:46.7778067Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:59:46.8413306Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:56:46.6887795Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:57:46.7327111Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:58:46.7701222Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T14:59:46.8247538Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:00:06.7697770Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:00:06.7770904Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:00:06.7771387Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:00:06.7771495Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:00:34.5302579Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:00:46.8852665Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:00:59.0696674Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:01:34.5499321Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:01:46.9536074Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:01:59.0931283Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:02:34.5738650Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:02:46.9964354Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:02:59.1162723Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:03:34.5889043Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:03:47.0273884Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:03:59.1497875Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:04:34.6034731Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:04:47.0605616Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:04:59.1871962Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:05:34.6165205Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:05:47.1006034Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:05:59.2151009Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:06:34.6457149Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:06:47.1589640Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:06:59.2445608Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:07:34.6666662Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:07:47.1976824Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:07:59.2705914Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:08:34.6914763Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:08:47.2395862Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:08:59.2957492Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:09:34.7068045Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:09:47.2879733Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:09:59.3203899Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:10:34.7185002Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:10:47.3354248Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:10:59.3568400Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:11:34.7449780Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:11:47.3761843Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:11:59.3944839Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:00:59.0803587Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:01:59.0992194Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:02:59.1263229Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:03:59.1663373Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:04:59.1975185Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:05:59.2227338Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:06:59.2500895Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:07:59.2786375Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:08:59.3057975Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:09:59.3313366Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:10:59.3714535Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:11:59.4028532Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:00:46.9255374Z</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2025-04-12T15:01:46.9795809Z</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -18037,6 +18283,2630 @@
         <x:v>15</x:v>
       </x:c>
     </x:row>
+    <x:row r="498" spans="1:10">
+      <x:c r="A498" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B498" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C498" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D498" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E498" s="0">
+        <x:v>22.4</x:v>
+      </x:c>
+      <x:c r="F498" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G498" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H498" s="0" t="s">
+        <x:v>584</x:v>
+      </x:c>
+      <x:c r="I498" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J498" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="499" spans="1:10">
+      <x:c r="A499" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B499" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C499" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D499" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E499" s="0">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F499" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G499" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H499" s="0" t="s">
+        <x:v>585</x:v>
+      </x:c>
+      <x:c r="I499" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J499" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="500" spans="1:10">
+      <x:c r="A500" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B500" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C500" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D500" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E500" s="0">
+        <x:v>22.6</x:v>
+      </x:c>
+      <x:c r="F500" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G500" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H500" s="0" t="s">
+        <x:v>586</x:v>
+      </x:c>
+      <x:c r="I500" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J500" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="501" spans="1:10">
+      <x:c r="A501" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B501" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C501" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D501" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E501" s="0">
+        <x:v>21.3</x:v>
+      </x:c>
+      <x:c r="F501" s="0">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="G501" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H501" s="0" t="s">
+        <x:v>587</x:v>
+      </x:c>
+      <x:c r="I501" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J501" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="502" spans="1:10">
+      <x:c r="A502" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B502" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C502" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D502" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E502" s="0">
+        <x:v>25.1</x:v>
+      </x:c>
+      <x:c r="F502" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G502" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H502" s="0" t="s">
+        <x:v>588</x:v>
+      </x:c>
+      <x:c r="I502" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J502" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="503" spans="1:10">
+      <x:c r="A503" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B503" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C503" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D503" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E503" s="0">
+        <x:v>18.4</x:v>
+      </x:c>
+      <x:c r="F503" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G503" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H503" s="0" t="s">
+        <x:v>589</x:v>
+      </x:c>
+      <x:c r="I503" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J503" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="504" spans="1:10">
+      <x:c r="A504" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B504" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C504" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D504" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E504" s="0">
+        <x:v>21.1</x:v>
+      </x:c>
+      <x:c r="F504" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G504" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H504" s="0" t="s">
+        <x:v>590</x:v>
+      </x:c>
+      <x:c r="I504" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J504" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="505" spans="1:10">
+      <x:c r="A505" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B505" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C505" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D505" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E505" s="0">
+        <x:v>23.7</x:v>
+      </x:c>
+      <x:c r="F505" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G505" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H505" s="0" t="s">
+        <x:v>591</x:v>
+      </x:c>
+      <x:c r="I505" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J505" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="506" spans="1:10">
+      <x:c r="A506" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B506" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C506" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D506" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E506" s="0">
+        <x:v>21.6</x:v>
+      </x:c>
+      <x:c r="F506" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G506" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H506" s="0" t="s">
+        <x:v>592</x:v>
+      </x:c>
+      <x:c r="I506" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J506" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="507" spans="1:10">
+      <x:c r="A507" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B507" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C507" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D507" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E507" s="0">
+        <x:v>19.2</x:v>
+      </x:c>
+      <x:c r="F507" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G507" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H507" s="0" t="s">
+        <x:v>593</x:v>
+      </x:c>
+      <x:c r="I507" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J507" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="508" spans="1:10">
+      <x:c r="A508" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B508" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C508" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D508" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E508" s="0">
+        <x:v>22.7</x:v>
+      </x:c>
+      <x:c r="F508" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G508" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H508" s="0" t="s">
+        <x:v>594</x:v>
+      </x:c>
+      <x:c r="I508" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J508" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="509" spans="1:10">
+      <x:c r="A509" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B509" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C509" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D509" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E509" s="0">
+        <x:v>22.3</x:v>
+      </x:c>
+      <x:c r="F509" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G509" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H509" s="0" t="s">
+        <x:v>595</x:v>
+      </x:c>
+      <x:c r="I509" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J509" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="510" spans="1:10">
+      <x:c r="A510" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B510" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C510" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D510" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E510" s="0">
+        <x:v>25.5</x:v>
+      </x:c>
+      <x:c r="F510" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G510" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H510" s="0" t="s">
+        <x:v>596</x:v>
+      </x:c>
+      <x:c r="I510" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J510" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="511" spans="1:10">
+      <x:c r="A511" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B511" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C511" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D511" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E511" s="0">
+        <x:v>21.5</x:v>
+      </x:c>
+      <x:c r="F511" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G511" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H511" s="0" t="s">
+        <x:v>597</x:v>
+      </x:c>
+      <x:c r="I511" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J511" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="512" spans="1:10">
+      <x:c r="A512" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B512" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C512" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D512" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E512" s="0">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="F512" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G512" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H512" s="0" t="s">
+        <x:v>598</x:v>
+      </x:c>
+      <x:c r="I512" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J512" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="513" spans="1:10">
+      <x:c r="A513" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B513" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C513" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D513" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E513" s="0">
+        <x:v>22.6</x:v>
+      </x:c>
+      <x:c r="F513" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G513" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H513" s="0" t="s">
+        <x:v>599</x:v>
+      </x:c>
+      <x:c r="I513" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J513" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="514" spans="1:10">
+      <x:c r="A514" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B514" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C514" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D514" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E514" s="0">
+        <x:v>1017.7</x:v>
+      </x:c>
+      <x:c r="F514" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G514" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H514" s="0" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="I514" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J514" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="515" spans="1:10">
+      <x:c r="A515" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B515" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C515" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D515" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E515" s="0">
+        <x:v>994.1</x:v>
+      </x:c>
+      <x:c r="F515" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G515" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H515" s="0" t="s">
+        <x:v>601</x:v>
+      </x:c>
+      <x:c r="I515" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J515" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="516" spans="1:10">
+      <x:c r="A516" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B516" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C516" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D516" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E516" s="0">
+        <x:v>1024.9</x:v>
+      </x:c>
+      <x:c r="F516" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G516" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H516" s="0" t="s">
+        <x:v>602</x:v>
+      </x:c>
+      <x:c r="I516" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J516" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="517" spans="1:10">
+      <x:c r="A517" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B517" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C517" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D517" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E517" s="0">
+        <x:v>1013</x:v>
+      </x:c>
+      <x:c r="F517" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G517" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H517" s="0" t="s">
+        <x:v>603</x:v>
+      </x:c>
+      <x:c r="I517" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J517" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="518" spans="1:10">
+      <x:c r="A518" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B518" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C518" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D518" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E518" s="0">
+        <x:v>94.4</x:v>
+      </x:c>
+      <x:c r="F518" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G518" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H518" s="0" t="s">
+        <x:v>604</x:v>
+      </x:c>
+      <x:c r="I518" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J518" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="519" spans="1:10">
+      <x:c r="A519" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B519" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C519" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D519" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E519" s="0">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="F519" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G519" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H519" s="0" t="s">
+        <x:v>605</x:v>
+      </x:c>
+      <x:c r="I519" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J519" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="520" spans="1:10">
+      <x:c r="A520" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B520" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C520" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D520" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E520" s="0">
+        <x:v>62.6</x:v>
+      </x:c>
+      <x:c r="F520" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G520" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H520" s="0" t="s">
+        <x:v>606</x:v>
+      </x:c>
+      <x:c r="I520" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J520" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="521" spans="1:10">
+      <x:c r="A521" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B521" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C521" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D521" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E521" s="0">
+        <x:v>75.1</x:v>
+      </x:c>
+      <x:c r="F521" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G521" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H521" s="0" t="s">
+        <x:v>607</x:v>
+      </x:c>
+      <x:c r="I521" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J521" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="522" spans="1:10">
+      <x:c r="A522" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B522" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C522" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D522" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E522" s="0">
+        <x:v>8.2</x:v>
+      </x:c>
+      <x:c r="F522" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G522" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H522" s="0" t="s">
+        <x:v>608</x:v>
+      </x:c>
+      <x:c r="I522" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J522" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="523" spans="1:10">
+      <x:c r="A523" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B523" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C523" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D523" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E523" s="0">
+        <x:v>2.2</x:v>
+      </x:c>
+      <x:c r="F523" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G523" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H523" s="0" t="s">
+        <x:v>609</x:v>
+      </x:c>
+      <x:c r="I523" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J523" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="524" spans="1:10">
+      <x:c r="A524" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B524" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C524" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D524" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E524" s="0">
+        <x:v>18.3</x:v>
+      </x:c>
+      <x:c r="F524" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G524" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H524" s="0" t="s">
+        <x:v>610</x:v>
+      </x:c>
+      <x:c r="I524" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J524" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="525" spans="1:10">
+      <x:c r="A525" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B525" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C525" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D525" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E525" s="0">
+        <x:v>29.9</x:v>
+      </x:c>
+      <x:c r="F525" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G525" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H525" s="0" t="s">
+        <x:v>611</x:v>
+      </x:c>
+      <x:c r="I525" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J525" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="526" spans="1:10">
+      <x:c r="A526" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B526" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C526" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D526" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E526" s="0">
+        <x:v>21.8</x:v>
+      </x:c>
+      <x:c r="F526" s="0">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G526" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H526" s="0" t="s">
+        <x:v>612</x:v>
+      </x:c>
+      <x:c r="I526" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J526" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="527" spans="1:10">
+      <x:c r="A527" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B527" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C527" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D527" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E527" s="0">
+        <x:v>1012.4</x:v>
+      </x:c>
+      <x:c r="F527" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G527" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H527" s="0" t="s">
+        <x:v>613</x:v>
+      </x:c>
+      <x:c r="I527" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J527" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="528" spans="1:10">
+      <x:c r="A528" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B528" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C528" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D528" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E528" s="0">
+        <x:v>70.8</x:v>
+      </x:c>
+      <x:c r="F528" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G528" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H528" s="0" t="s">
+        <x:v>614</x:v>
+      </x:c>
+      <x:c r="I528" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J528" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="529" spans="1:10">
+      <x:c r="A529" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B529" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C529" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D529" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="E529" s="0">
+        <x:v>14.6</x:v>
+      </x:c>
+      <x:c r="F529" s="0">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="G529" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H529" s="0" t="s">
+        <x:v>615</x:v>
+      </x:c>
+      <x:c r="I529" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J529" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="530" spans="1:10">
+      <x:c r="A530" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B530" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C530" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D530" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E530" s="0">
+        <x:v>19.5</x:v>
+      </x:c>
+      <x:c r="F530" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G530" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H530" s="0" t="s">
+        <x:v>616</x:v>
+      </x:c>
+      <x:c r="I530" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J530" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="531" spans="1:10">
+      <x:c r="A531" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B531" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C531" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D531" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E531" s="0">
+        <x:v>23.5</x:v>
+      </x:c>
+      <x:c r="F531" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G531" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H531" s="0" t="s">
+        <x:v>617</x:v>
+      </x:c>
+      <x:c r="I531" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J531" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="532" spans="1:10">
+      <x:c r="A532" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B532" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C532" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D532" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E532" s="0">
+        <x:v>20.9</x:v>
+      </x:c>
+      <x:c r="F532" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G532" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H532" s="0" t="s">
+        <x:v>618</x:v>
+      </x:c>
+      <x:c r="I532" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J532" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="533" spans="1:10">
+      <x:c r="A533" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B533" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C533" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D533" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E533" s="0">
+        <x:v>18.1</x:v>
+      </x:c>
+      <x:c r="F533" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G533" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H533" s="0" t="s">
+        <x:v>619</x:v>
+      </x:c>
+      <x:c r="I533" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J533" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="534" spans="1:10">
+      <x:c r="A534" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B534" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C534" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D534" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E534" s="0">
+        <x:v>23.5</x:v>
+      </x:c>
+      <x:c r="F534" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G534" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H534" s="0" t="s">
+        <x:v>620</x:v>
+      </x:c>
+      <x:c r="I534" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J534" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="535" spans="1:10">
+      <x:c r="A535" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B535" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C535" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D535" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E535" s="0">
+        <x:v>24.7</x:v>
+      </x:c>
+      <x:c r="F535" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G535" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H535" s="0" t="s">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c r="I535" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J535" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="536" spans="1:10">
+      <x:c r="A536" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B536" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C536" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D536" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E536" s="0">
+        <x:v>23.8</x:v>
+      </x:c>
+      <x:c r="F536" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G536" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H536" s="0" t="s">
+        <x:v>622</x:v>
+      </x:c>
+      <x:c r="I536" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J536" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="537" spans="1:10">
+      <x:c r="A537" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B537" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C537" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D537" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E537" s="0">
+        <x:v>24.7</x:v>
+      </x:c>
+      <x:c r="F537" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G537" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H537" s="0" t="s">
+        <x:v>623</x:v>
+      </x:c>
+      <x:c r="I537" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J537" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="538" spans="1:10">
+      <x:c r="A538" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B538" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C538" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D538" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E538" s="0">
+        <x:v>23.3</x:v>
+      </x:c>
+      <x:c r="F538" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G538" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H538" s="0" t="s">
+        <x:v>624</x:v>
+      </x:c>
+      <x:c r="I538" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J538" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="539" spans="1:10">
+      <x:c r="A539" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B539" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C539" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D539" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E539" s="0">
+        <x:v>18.3</x:v>
+      </x:c>
+      <x:c r="F539" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G539" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H539" s="0" t="s">
+        <x:v>625</x:v>
+      </x:c>
+      <x:c r="I539" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J539" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="540" spans="1:10">
+      <x:c r="A540" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B540" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C540" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D540" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E540" s="0">
+        <x:v>24.6</x:v>
+      </x:c>
+      <x:c r="F540" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G540" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H540" s="0" t="s">
+        <x:v>626</x:v>
+      </x:c>
+      <x:c r="I540" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J540" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="541" spans="1:10">
+      <x:c r="A541" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B541" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C541" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D541" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E541" s="0">
+        <x:v>22.9</x:v>
+      </x:c>
+      <x:c r="F541" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G541" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H541" s="0" t="s">
+        <x:v>627</x:v>
+      </x:c>
+      <x:c r="I541" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J541" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="542" spans="1:10">
+      <x:c r="A542" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B542" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C542" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D542" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E542" s="0">
+        <x:v>24.5</x:v>
+      </x:c>
+      <x:c r="F542" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G542" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H542" s="0" t="s">
+        <x:v>628</x:v>
+      </x:c>
+      <x:c r="I542" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J542" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="543" spans="1:10">
+      <x:c r="A543" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B543" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C543" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D543" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E543" s="0">
+        <x:v>20.7</x:v>
+      </x:c>
+      <x:c r="F543" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G543" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H543" s="0" t="s">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c r="I543" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J543" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="544" spans="1:10">
+      <x:c r="A544" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B544" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C544" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D544" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E544" s="0">
+        <x:v>18.4</x:v>
+      </x:c>
+      <x:c r="F544" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G544" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H544" s="0" t="s">
+        <x:v>630</x:v>
+      </x:c>
+      <x:c r="I544" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J544" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="545" spans="1:10">
+      <x:c r="A545" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B545" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C545" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D545" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E545" s="0">
+        <x:v>21.9</x:v>
+      </x:c>
+      <x:c r="F545" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G545" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H545" s="0" t="s">
+        <x:v>631</x:v>
+      </x:c>
+      <x:c r="I545" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J545" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="546" spans="1:10">
+      <x:c r="A546" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B546" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C546" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D546" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E546" s="0">
+        <x:v>21.5</x:v>
+      </x:c>
+      <x:c r="F546" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G546" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H546" s="0" t="s">
+        <x:v>632</x:v>
+      </x:c>
+      <x:c r="I546" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J546" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="547" spans="1:10">
+      <x:c r="A547" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B547" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C547" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D547" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E547" s="0">
+        <x:v>20.6</x:v>
+      </x:c>
+      <x:c r="F547" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G547" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H547" s="0" t="s">
+        <x:v>633</x:v>
+      </x:c>
+      <x:c r="I547" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J547" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="548" spans="1:10">
+      <x:c r="A548" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B548" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C548" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D548" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E548" s="0">
+        <x:v>23.2</x:v>
+      </x:c>
+      <x:c r="F548" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G548" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H548" s="0" t="s">
+        <x:v>634</x:v>
+      </x:c>
+      <x:c r="I548" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J548" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="549" spans="1:10">
+      <x:c r="A549" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B549" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C549" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D549" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E549" s="0">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F549" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G549" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H549" s="0" t="s">
+        <x:v>635</x:v>
+      </x:c>
+      <x:c r="I549" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J549" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="550" spans="1:10">
+      <x:c r="A550" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B550" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C550" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D550" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E550" s="0">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F550" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G550" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H550" s="0" t="s">
+        <x:v>636</x:v>
+      </x:c>
+      <x:c r="I550" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J550" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="551" spans="1:10">
+      <x:c r="A551" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B551" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C551" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D551" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E551" s="0">
+        <x:v>18.8</x:v>
+      </x:c>
+      <x:c r="F551" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G551" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H551" s="0" t="s">
+        <x:v>637</x:v>
+      </x:c>
+      <x:c r="I551" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J551" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="552" spans="1:10">
+      <x:c r="A552" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B552" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C552" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D552" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E552" s="0">
+        <x:v>23.2</x:v>
+      </x:c>
+      <x:c r="F552" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G552" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H552" s="0" t="s">
+        <x:v>638</x:v>
+      </x:c>
+      <x:c r="I552" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J552" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="553" spans="1:10">
+      <x:c r="A553" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B553" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C553" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D553" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E553" s="0">
+        <x:v>25.9</x:v>
+      </x:c>
+      <x:c r="F553" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G553" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H553" s="0" t="s">
+        <x:v>639</x:v>
+      </x:c>
+      <x:c r="I553" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J553" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="554" spans="1:10">
+      <x:c r="A554" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B554" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C554" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D554" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E554" s="0">
+        <x:v>18.5</x:v>
+      </x:c>
+      <x:c r="F554" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G554" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H554" s="0" t="s">
+        <x:v>640</x:v>
+      </x:c>
+      <x:c r="I554" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J554" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="555" spans="1:10">
+      <x:c r="A555" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B555" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C555" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D555" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E555" s="0">
+        <x:v>21.2</x:v>
+      </x:c>
+      <x:c r="F555" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G555" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H555" s="0" t="s">
+        <x:v>641</x:v>
+      </x:c>
+      <x:c r="I555" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J555" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="556" spans="1:10">
+      <x:c r="A556" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B556" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C556" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D556" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E556" s="0">
+        <x:v>25.2</x:v>
+      </x:c>
+      <x:c r="F556" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G556" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H556" s="0" t="s">
+        <x:v>642</x:v>
+      </x:c>
+      <x:c r="I556" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J556" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="557" spans="1:10">
+      <x:c r="A557" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B557" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C557" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D557" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E557" s="0">
+        <x:v>20.6</x:v>
+      </x:c>
+      <x:c r="F557" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G557" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H557" s="0" t="s">
+        <x:v>643</x:v>
+      </x:c>
+      <x:c r="I557" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J557" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="558" spans="1:10">
+      <x:c r="A558" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B558" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C558" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D558" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E558" s="0">
+        <x:v>24.5</x:v>
+      </x:c>
+      <x:c r="F558" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G558" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H558" s="0" t="s">
+        <x:v>644</x:v>
+      </x:c>
+      <x:c r="I558" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J558" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="559" spans="1:10">
+      <x:c r="A559" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B559" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C559" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D559" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E559" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F559" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G559" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H559" s="0" t="s">
+        <x:v>645</x:v>
+      </x:c>
+      <x:c r="I559" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J559" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="560" spans="1:10">
+      <x:c r="A560" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B560" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C560" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D560" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E560" s="0">
+        <x:v>25.1</x:v>
+      </x:c>
+      <x:c r="F560" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G560" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H560" s="0" t="s">
+        <x:v>646</x:v>
+      </x:c>
+      <x:c r="I560" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J560" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="561" spans="1:10">
+      <x:c r="A561" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B561" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C561" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D561" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E561" s="0">
+        <x:v>20.1</x:v>
+      </x:c>
+      <x:c r="F561" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G561" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H561" s="0" t="s">
+        <x:v>647</x:v>
+      </x:c>
+      <x:c r="I561" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J561" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="562" spans="1:10">
+      <x:c r="A562" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B562" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C562" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D562" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E562" s="0">
+        <x:v>19.8</x:v>
+      </x:c>
+      <x:c r="F562" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G562" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H562" s="0" t="s">
+        <x:v>648</x:v>
+      </x:c>
+      <x:c r="I562" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J562" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="563" spans="1:10">
+      <x:c r="A563" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B563" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C563" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D563" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E563" s="0">
+        <x:v>18.2</x:v>
+      </x:c>
+      <x:c r="F563" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G563" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H563" s="0" t="s">
+        <x:v>649</x:v>
+      </x:c>
+      <x:c r="I563" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J563" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="564" spans="1:10">
+      <x:c r="A564" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B564" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C564" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D564" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E564" s="0">
+        <x:v>19.1</x:v>
+      </x:c>
+      <x:c r="F564" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G564" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H564" s="0" t="s">
+        <x:v>650</x:v>
+      </x:c>
+      <x:c r="I564" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J564" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="565" spans="1:10">
+      <x:c r="A565" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B565" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C565" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D565" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E565" s="0">
+        <x:v>21.9</x:v>
+      </x:c>
+      <x:c r="F565" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G565" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H565" s="0" t="s">
+        <x:v>651</x:v>
+      </x:c>
+      <x:c r="I565" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J565" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="566" spans="1:10">
+      <x:c r="A566" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B566" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C566" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D566" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E566" s="0">
+        <x:v>998.4</x:v>
+      </x:c>
+      <x:c r="F566" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G566" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H566" s="0" t="s">
+        <x:v>652</x:v>
+      </x:c>
+      <x:c r="I566" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J566" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="567" spans="1:10">
+      <x:c r="A567" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B567" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C567" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D567" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E567" s="0">
+        <x:v>1010.7</x:v>
+      </x:c>
+      <x:c r="F567" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G567" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H567" s="0" t="s">
+        <x:v>653</x:v>
+      </x:c>
+      <x:c r="I567" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J567" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="568" spans="1:10">
+      <x:c r="A568" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B568" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C568" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D568" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E568" s="0">
+        <x:v>1041.4</x:v>
+      </x:c>
+      <x:c r="F568" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G568" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H568" s="0" t="s">
+        <x:v>654</x:v>
+      </x:c>
+      <x:c r="I568" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J568" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="569" spans="1:10">
+      <x:c r="A569" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B569" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C569" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D569" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E569" s="0">
+        <x:v>1027.2</x:v>
+      </x:c>
+      <x:c r="F569" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G569" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H569" s="0" t="s">
+        <x:v>655</x:v>
+      </x:c>
+      <x:c r="I569" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J569" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="570" spans="1:10">
+      <x:c r="A570" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B570" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C570" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D570" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E570" s="0">
+        <x:v>1022.9</x:v>
+      </x:c>
+      <x:c r="F570" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G570" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H570" s="0" t="s">
+        <x:v>656</x:v>
+      </x:c>
+      <x:c r="I570" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J570" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="571" spans="1:10">
+      <x:c r="A571" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B571" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C571" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D571" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E571" s="0">
+        <x:v>984</x:v>
+      </x:c>
+      <x:c r="F571" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G571" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H571" s="0" t="s">
+        <x:v>657</x:v>
+      </x:c>
+      <x:c r="I571" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J571" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="572" spans="1:10">
+      <x:c r="A572" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B572" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C572" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D572" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E572" s="0">
+        <x:v>992</x:v>
+      </x:c>
+      <x:c r="F572" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G572" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H572" s="0" t="s">
+        <x:v>658</x:v>
+      </x:c>
+      <x:c r="I572" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J572" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="573" spans="1:10">
+      <x:c r="A573" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B573" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C573" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D573" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E573" s="0">
+        <x:v>1016.6</x:v>
+      </x:c>
+      <x:c r="F573" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G573" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H573" s="0" t="s">
+        <x:v>659</x:v>
+      </x:c>
+      <x:c r="I573" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J573" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="574" spans="1:10">
+      <x:c r="A574" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B574" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C574" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D574" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E574" s="0">
+        <x:v>981.4</x:v>
+      </x:c>
+      <x:c r="F574" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G574" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H574" s="0" t="s">
+        <x:v>660</x:v>
+      </x:c>
+      <x:c r="I574" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J574" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="575" spans="1:10">
+      <x:c r="A575" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B575" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C575" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D575" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E575" s="0">
+        <x:v>1037.1</x:v>
+      </x:c>
+      <x:c r="F575" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G575" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H575" s="0" t="s">
+        <x:v>661</x:v>
+      </x:c>
+      <x:c r="I575" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J575" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="576" spans="1:10">
+      <x:c r="A576" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B576" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C576" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D576" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E576" s="0">
+        <x:v>1031</x:v>
+      </x:c>
+      <x:c r="F576" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G576" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H576" s="0" t="s">
+        <x:v>662</x:v>
+      </x:c>
+      <x:c r="I576" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J576" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="577" spans="1:10">
+      <x:c r="A577" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B577" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C577" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D577" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E577" s="0">
+        <x:v>1045.2</x:v>
+      </x:c>
+      <x:c r="F577" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G577" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H577" s="0" t="s">
+        <x:v>663</x:v>
+      </x:c>
+      <x:c r="I577" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J577" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="578" spans="1:10">
+      <x:c r="A578" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B578" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C578" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D578" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E578" s="0">
+        <x:v>56.6</x:v>
+      </x:c>
+      <x:c r="F578" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G578" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H578" s="0" t="s">
+        <x:v>664</x:v>
+      </x:c>
+      <x:c r="I578" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J578" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="579" spans="1:10">
+      <x:c r="A579" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B579" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C579" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D579" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E579" s="0">
+        <x:v>96.8</x:v>
+      </x:c>
+      <x:c r="F579" s="0">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G579" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="H579" s="0" t="s">
+        <x:v>665</x:v>
+      </x:c>
+      <x:c r="I579" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J579" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
